--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -27,6 +27,15 @@
     <t>es</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reacción en cadena</t>
+  </si>
+  <si>
     <t>mm_play</t>
   </si>
   <si>
@@ -97,6 +106,33 @@
   </si>
   <si>
     <t xml:space="preserve">Menú principal</t>
+  </si>
+  <si>
+    <t>title_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configura la partida</t>
+  </si>
+  <si>
+    <t>warn_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pieces have the same shape and color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las figuras tienen la misma forma y color</t>
+  </si>
+  <si>
+    <t>warn_ok</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Aceptar</t>
   </si>
 </sst>
 </file>
@@ -137,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +694,8 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="13.57421875"/>
-    <col customWidth="1" min="2" max="2" width="22.00390625"/>
-    <col bestFit="1" min="3" max="3" width="18.8515625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="37.3828125"/>
+    <col bestFit="1" min="3" max="3" width="36.23046875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -758,6 +795,50 @@
       </c>
       <c r="C9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -84,10 +84,10 @@
     <t>menu_win</t>
   </si>
   <si>
-    <t xml:space="preserve">Player {player} won!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¡Ha ganado el jugador {player}!</t>
+    <t xml:space="preserve">{player} won!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Ha ganado {player}!</t>
   </si>
   <si>
     <t>menu_revenge</t>
@@ -126,6 +126,15 @@
     <t xml:space="preserve">Las figuras tienen la misma forma y color</t>
   </si>
   <si>
+    <t>warn_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both players must have a name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los dos jugadores deben tener nombre</t>
+  </si>
+  <si>
     <t>warn_ok</t>
   </si>
   <si>
@@ -133,6 +142,15 @@
   </si>
   <si>
     <t>Aceptar</t>
+  </si>
+  <si>
+    <t>name_enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter name...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduce tu nombre...</t>
   </si>
 </sst>
 </file>
@@ -841,6 +859,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,15 @@
     <t>Opciones</t>
   </si>
   <si>
+    <t>mm_back</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Atrás</t>
+  </si>
+  <si>
     <t>mm_quit</t>
   </si>
   <si>
@@ -63,6 +72,33 @@
     <t>Salir</t>
   </si>
   <si>
+    <t>mm_records</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>Registros</t>
+  </si>
+  <si>
+    <t>record_won</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{player} won</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganó {player}</t>
+  </si>
+  <si>
+    <t>record_turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It took {turns} turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomó {turns} turnos</t>
+  </si>
+  <si>
     <t>mm_res</t>
   </si>
   <si>
@@ -81,6 +117,24 @@
     <t xml:space="preserve">Pantalla completa</t>
   </si>
   <si>
+    <t>mm_music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen música</t>
+  </si>
+  <si>
+    <t>mm_effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volumen efectos</t>
+  </si>
+  <si>
     <t>menu_win</t>
   </si>
   <si>
@@ -120,7 +174,7 @@
     <t>warn_select</t>
   </si>
   <si>
-    <t xml:space="preserve">The pieces have the same shape and color</t>
+    <t xml:space="preserve">The shape and/or color of each player must be different</t>
   </si>
   <si>
     <t xml:space="preserve">Las figuras tienen la misma forma y color</t>
@@ -151,6 +205,33 @@
   </si>
   <si>
     <t xml:space="preserve">Introduce tu nombre...</t>
+  </si>
+  <si>
+    <t>credits_dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created by Javier Morales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creado por Javier Morales</t>
+  </si>
+  <si>
+    <t>credits_music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music from patrickdearteaga.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Música de patrickdearteaga.com</t>
+  </si>
+  <si>
+    <t>credits_kenney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poker icons from kenney.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iconos de póker de kenney.com</t>
   </si>
 </sst>
 </file>
@@ -712,7 +793,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="13.57421875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="37.3828125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="48.00390625"/>
     <col bestFit="1" min="3" max="3" width="36.23046875"/>
   </cols>
   <sheetData>
@@ -838,7 +919,7 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
@@ -879,6 +960,105 @@
       </c>
       <c r="C15" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/localization/Localization.xlsx
+++ b/localization/Localization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Registros</t>
+  </si>
+  <si>
+    <t>mm_credits</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Créditos</t>
   </si>
   <si>
     <t>record_won</t>
@@ -985,7 +994,7 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
@@ -996,7 +1005,7 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
@@ -1059,6 +1068,17 @@
       </c>
       <c r="C24" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
